--- a/Throughputs.xlsx
+++ b/Throughputs.xlsx
@@ -224,6 +224,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$15:$F$15</c:f>
@@ -292,6 +350,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$15:$F$15</c:f>
@@ -335,8 +451,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2439,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
